--- a/docs/0.1.0/StructureDefinition-coverage-snapshot-age-in-months.xlsx
+++ b/docs/0.1.0/StructureDefinition-coverage-snapshot-age-in-months.xlsx
@@ -206,7 +206,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://alvearie.github.io/alvearie-fhir-ig/StructureDefinition/coverage-snapshot-age-in-months</t>
+    <t>http://alvearie.io/fhir/StructureDefinition/coverage-snapshot-age-in-months</t>
   </si>
   <si>
     <t>N/A</t>
